--- a/DMSNewVSale_2025-10-25_09-24.xlsx
+++ b/DMSNewVSale_2025-10-25_09-24.xlsx
@@ -39,30 +39,6 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
-  </si>
-  <si>
-    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
   </si>
   <si>
     <t>Saturday, 25 October, 2025 9:24 AM</t>
@@ -287,10 +263,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -299,7 +275,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -705,105 +681,58 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="7"/>
-      <c t="s" r="C7" s="8">
-        <v>10</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c t="s" r="H7" s="9">
-        <v>11</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c t="s" r="L7" s="10">
-        <v>12</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c t="s" r="N7" s="8">
-        <v>13</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c t="s" r="P7" s="11">
-        <v>14</v>
-      </c>
-      <c t="s" r="Q7" s="12">
-        <v>11</v>
-      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c t="s" r="C8" s="8">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c t="s" r="H8" s="9">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c t="s" r="A9" s="14">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c t="s" r="G9" s="15">
         <v>11</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c t="s" r="L8" s="10">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c t="s" r="K9" s="17">
         <v>12</v>
       </c>
-      <c r="M8" s="10"/>
-      <c t="s" r="N8" s="8">
-        <v>16</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c t="s" r="P8" s="11">
-        <v>17</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="26.25" customHeight="1">
-      <c r="N9" s="13">
-        <v>144</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>19</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>20</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="17">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -817,15 +746,10 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
